--- a/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_french-toast.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_french-toast.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -103,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ingredients</t>
+          <t>recipe_ingredients</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -127,100 +500,68 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699653561-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699653568-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fy05JHmuXESKEi16kdskqFMsOoQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1135x0:1137x2):format(webp)/9436341-4347d18382ba4aa48e51970b9ad160d1.jpg"
@@ -233,69 +574,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285499/coconut-and-berry-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coconut and Berry French Toast Bake</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n2 large eggs\n\n\n2 tablespoons milk\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n3 slices whole wheat bread\n\n\n½ cup mixed frozen berries\n\n\n¼ cup shredded coconut"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 large eggs\n\n\n2 tablespoons milk\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n3 slices whole wheat bread\n\n\n½ cup mixed frozen berries\n\n\n¼ cup shredded coconut'}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a small baking dish with cooking spray."},{"recipe_directions":"Whisk eggs, milk, vanilla, and cinnamon together in a bowl."},{"recipe_directions":"Cut bread slices into squares and place in the prepared baking dish. Pour egg mixture over top, making sure all bread is soaked. Sprinkle berries and coconut on top."},{"recipe_directions":"Bake in the preheated oven until egg mixture is set, 15 to 30 minutes; check often to make sure coconut doesn't burn."}]</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"281\nCalories\n\n\n14g \nFat\n\n\n26g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699653580-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NzsxUrf9ZOHEAlU13V9gyVxqeIw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Blueberry-Almond-French-Toast-Bake-2000-b9f5a870536d4fc0852a13333293960a.jpg"
@@ -309,69 +646,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285503/blueberry-almond-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blueberry-Almond French Toast Bake</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 5 hrs\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n8 large eggs\n\n\n8 large egg whites\n\n\n2 cups milk\n\n\n⅓ cup pure maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n1 (1 pound) loaf whole wheat bread, cubed\n\n\n2 cups fresh blueberries\n\n\n⅓ cup sliced almonds\n\n\n2 tablespoons dark brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n8 large eggs\n\n\n8 large egg whites\n\n\n2 cups milk\n\n\n⅓ cup pure maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n1 (1 pound) loaf whole wheat bread, cubed\n\n\n2 cups fresh blueberries\n\n\n⅓ cup sliced almonds\n\n\n2 tablespoons dark brown sugar'}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray a 9x13-inch baking pan with cooking spray."},{"recipe_directions":"Whisk eggs, egg whites, milk, maple syrup, vanilla, and cinnamon together in a large bowl."},{"recipe_directions":"Place bread cubes in the prepared pan. Pour egg mixture over the bread. Scatter blueberries evenly over the top and sprinkle with almonds and brown sugar. Cover with plastic wrap and refrigerate for 4 hours, or overnight."},{"recipe_directions":"When ready to bake, preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Remove plastic wrap from the baking pan. Bake in the preheated oven until golden brown , 40 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"362\nCalories\n\n\n11g \nFat\n\n\n46g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699653591-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Rv4EpEvqdrgADnzo3R9ZpoqTeKY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1907180-864c4dd1a75f4886b4abed3284a0a62e.jpg"
@@ -384,69 +717,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230820/berry-good-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Berry Good French Toast Bake</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 40 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9x13-inch baking dish"}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6  eggs\n\n\n1 ½ cups milk\n\n\n½ cup all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n10 thick slices French bread, cut into 1-inch cubes\n\n\n1 cup fresh blueberries\n\n\n½ cup chopped pecans (Optional)\n\n\n1 (3 ounce) package cream cheese, cut into 1/2-inch cubes"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  eggs\n\n\n1 ½ cups milk\n\n\n½ cup all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n10 thick slices French bread, cut into 1-inch cubes\n\n\n1 cup fresh blueberries\n\n\n½ cup chopped pecans (Optional)\n\n\n1 (3 ounce) package cream cheese, cut into 1/2-inch cubes'}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13-inch baking dish."},{"recipe_directions":"Beat eggs, milk, flour, sugar, cinnamon, vanilla, nutmeg, and salt in a large bowl with a hand mixer until smooth; add bread cubes and stir until well coated. Pour bread mixture into prepared baking dish. Top evenly with blueberries, pecans, and cream cheese cubes. Cover dish with plastic wrap and refrigerate 2 to 24 hours."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Bake uncovered in preheated oven until golden brown, 20 to 25 minutes."}]</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"332\nCalories\n\n\n14g \nFat\n\n\n39g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699653597-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -458,69 +787,65 @@
 French Toast Casserole with Pineapple Cream Cheese</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275840/french-toast-casserole-with-pineapple-cream-cheese/</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>French Toast Casserole with Pineapple Cream Cheese</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x13-inch casserole"}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n1 loaf French bread, cut into 3/4-inch slices\n\n\n1 (8 ounce) container cream cheese spread with pineapple\n\n\n4  eggs\n\n\n1 cup milk\n\n\n¼ cup white sugar\n\n\n2 tablespoons melted butter\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 loaf French bread, cut into 3/4-inch slices\n\n\n1 (8 ounce) container cream cheese spread with pineapple\n\n\n4  eggs\n\n\n1 cup milk\n\n\n¼ cup white sugar\n\n\n2 tablespoons melted butter\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray a 9x13-inch casserole with cooking spray."},{"recipe_directions":"Spread a dollop of cream cheese onto a slice of bread, then cover with another slice to make a little sandwich. Repeat with remaining bread and cream cheese. Place sandwiches in a single layer in the prepared casserole."},{"recipe_directions":"Whisk together eggs, milk, sugar, melted butter, cinnamon, and salt in a bowl; pour over sandwiches in the casserole, making sure bread is completely saturated with egg mixture. Cover with plastic wrap and refrigerate, 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Remove plastic wrap and place casserole in the preheated oven. Bake until top is golden brown, 25 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"238\nCalories\n\n\n10g \nFat\n\n\n30g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699653603-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GsY1miGFxNn0jk4Q8_ShociFB3A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/656867-3521463240d1481db47f8c176bc2081e.jpg"
@@ -533,69 +858,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217953/cardamom-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cardamom French Toast Casserole</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 cups cubed stale firm white bread\n\n\n1 cup chopped pecans\n\n\n3  eggs\n\n\n1 ½ cups milk\n\n\n¾ teaspoon almond extract\n\n\n1 tablespoon ground cardamom, or more to taste\n\n\n½ teaspoon ground cinnamon\n\n\n½ cup brown sugar\n\n\n1 cup confectioners' sugar\n\n\n½ teaspoon ground cardamom\n\n\n3 tablespoons milk, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "5 cups cubed stale firm white bread\n\n\n1 cup chopped pecans\n\n\n3  eggs\n\n\n1 ½ cups milk\n\n\n¾ teaspoon almond extract\n\n\n1 tablespoon ground cardamom, or more to taste\n\n\n½ teaspoon ground cinnamon\n\n\n½ cup brown sugar\n\n\n1 cup confectioners' sugar\n\n\n½ teaspoon ground cardamom\n\n\n3 tablespoons milk, or as needed"}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C). Prepare a 9x12-inch baking dish with cooking spray."},{"recipe_directions":"Place the bread cubes in the prepared dish. Sprinkle the pecans over the bread."},{"recipe_directions":"Beat the eggs, 1 1/2 cup milk, almond extract, 1 tablespoon cardamom, cinnamon, and brown sugar together in a bowl until thoroughly combined; pour the mixture evenly over the bread cubes and pecans. Cover the dish with aluminum foil and allow the casserole to sit 15 minutes to allow the flavors to combine."},{"recipe_directions":"Bake in the preheated oven for 20 minutes; remove the aluminum foil and continue baking until the top is golden brown, another 20 to 25 minutes. Remove from oven and allow to cool slightly, about 10 minutes."},{"recipe_directions":"Mix the confectioners' sugar, 1/2 teaspoon cardamom, and 3 tablespoons milk in a bowl with a fork until smooth; pour over the slightly cooled casserole to serve."}]</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"313\nCalories\n\n\n14g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699653609-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KI7H69OJzjASqzbKEsLCi12EGnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2057327-73bbf155141e4fef8d2a41ad6e4dde3f.jpg"
@@ -608,69 +929,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230458/sandwich-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Sandwich French Toast Casserole</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n6 slices whole wheat bread, or more to taste\n\n\n1 tablespoon butter, or as needed\n\n\n12 slices deli ham, or more to taste\n\n\n6 slices Swiss cheese, or more to taste\n\n\n½ cup milk\n\n\n4  eggs\n\n\n1 teaspoon Worcestershire sauce\n\n\n½ teaspoon mustard powder\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6 slices whole wheat bread, or more to taste\n\n\n1 tablespoon butter, or as needed\n\n\n12 slices deli ham, or more to taste\n\n\n6 slices Swiss cheese, or more to taste\n\n\n½ cup milk\n\n\n4  eggs\n\n\n1 teaspoon Worcestershire sauce\n\n\n½ teaspoon mustard powder\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Spray the inside of a 9x13-inch casserole dish with cooking spray."},{"recipe_directions":"Spread butter on one side of each bread slice; top each bread slice with 2 slices ham and 1 slice Swiss cheese. Arrange open-faced sandwiches in the prepared casserole dish, overlapping them to fit."},{"recipe_directions":"Whisk milk, eggs, Worcestershire sauce, mustard powder, salt, and pepper together in a bowl; pour milk mixture over the open-faced sandwiches. Allow milk mixture to soak in for at least 15 minutes."},{"recipe_directions":"Bake in the preheated oven until eggs are set and casserole is cooked through, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Strata Recipes"}]</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"347\nCalories\n\n\n19g \nFat\n\n\n17g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699653618-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dYrEm11Mp3d_tPlunGMuA8il554=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Maple-Pecan-French-Toast-Bake-91d6ae706dee4120b8b539518e8801c0.png"
@@ -684,69 +1001,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285505/maple-pecan-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Maple-Pecan French Toast Bake</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups milk\n\n\n1 ½ cups half-and-half\n\n\n6 large eggs\n\n\n1 tablespoon maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 (1 pound) loaf French bread, cut into 1-inch slices"},{"ingredients":"1 cup light brown sugar\n\n\n1 cup coarsely chopped pecans\n\n\n½ cup unsalted butter, softened\n\n\n2 tablespoons maple syrup"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups milk\n\n\n1 ½ cups half-and-half\n\n\n6 large eggs\n\n\n1 tablespoon maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 (1 pound) loaf French bread, cut into 1-inch slices'}, {'recipe_ingredients': '1 cup light brown sugar\n\n\n1 cup coarsely chopped pecans\n\n\n½ cup unsalted butter, softened\n\n\n2 tablespoons maple syrup'}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix milk, half-and-half, eggs, maple syrup, vanilla, cinnamon, and nutmeg together in a large bowl until well combined."},{"recipe_directions":"Layer bread slices in a greased 9x13-inch baking dish. Pour egg mixture over the bread slices. Cover and refrigerate, 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Remove French toast from the refrigerator."},{"recipe_directions":"Mix brown sugar, pecans, butter, and maple syrup together; spread topping evenly over the French toast."},{"recipe_directions":"Bake, uncovered, in the preheated oven until puffed and golden brown, about 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"413\nCalories\n\n\n22g \nFat\n\n\n47g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699653624-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -760,69 +1073,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285497/make-ahead-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Make-Ahead French Toast Bake</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (1 pound) loaf sourdough bread, cubed\n\n\n8 large eggs\n\n\n2 cups milk\n\n\n¾ cup white sugar\n\n\n½ cup heavy cream\n\n\n2 tablespoons vanilla extract"},{"ingredients":"½ cup all-purpose flour\n\n\n½ cup brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n½ cup cold unsalted butter, cut into pieces"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 pound) loaf sourdough bread, cubed\n\n\n8 large eggs\n\n\n2 cups milk\n\n\n¾ cup white sugar\n\n\n½ cup heavy cream\n\n\n2 tablespoons vanilla extract'}, {'recipe_ingredients': '½ cup all-purpose flour\n\n\n½ cup brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n½ cup cold unsalted butter, cut into pieces'}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread bread cubes evenly in a greased 9x13-inch pan."},{"recipe_directions":"Mix eggs, milk, sugar, cream, and vanilla together in a bowl. Pour evenly over the bread and and refrigerate, 8 hours to overnight."},{"recipe_directions":"Mix flour, brown sugar, cinnamon, and salt for topping together in a medium bowl. Add butter and cut in with a pastry blender until mixture is crumbly. Refrigerate, 8 hours to overnight."},{"recipe_directions":"When ready to bake, preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Sprinkle topping over bread-egg mixture and bake in the preheated oven until golden brown and to desired consistency, 45 minutes to 1 hour."}]</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"387\nCalories\n\n\n16g \nFat\n\n\n49g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699653631-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YF-KAUcH5bQ6XDJIwrNp5jhIAio=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/218745-Baked-French-Toast-with-Maple-Syrup-and-Granola-mauigirl_5228404_original-1x1-1-8292ef5413e54286ac95ac2656421981.jpg"
@@ -836,69 +1145,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218745/baked-french-toast-with-maple-syrup-and-granola/</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Baked French Toast With Maple Syrup and Granola</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (1 pound) loaf challah bread, sliced 1/2-inch thick\n\n\n4  eggs\n\n\n1 quart half-and-half cream\n\n\n½ cup orange juice\n\n\n½ cup white sugar\n\n\n½ cup light brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n1 cup granola cereal\n\n\n½ cup maple syrup\n\n\n½ cup unsalted butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 pound) loaf challah bread, sliced 1/2-inch thick\n\n\n4  eggs\n\n\n1 quart half-and-half cream\n\n\n½ cup orange juice\n\n\n½ cup white sugar\n\n\n½ cup light brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n1 cup granola cereal\n\n\n½ cup maple syrup\n\n\n½ cup unsalted butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Butter a 9x13-inch baking dish. Lay the bread slices into the prepared baking dish in 2 layers. Beat eggs, half-and-half cream, orange juice, white sugar, brown sugar, cinnamon, and nutmeg together in a bowl until smooth, and pour over the bread. With a large spoon, press the bread down into the egg mixture so all the bread becomes soaked with the mixture."},{"recipe_directions":"Sprinkle the granola evenly over the casserole, and drizzle with maple syrup and melted butter. Cover the dish with plastic wrap, and refrigerate overnight."},{"recipe_directions":"About 1 hour before serving, remove the casserole from the refrigerator, and take off the plastic wrap. Preheat oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Bake in the preheated oven for 30 minutes, then turn oven temperature up to 375 degrees F (190 degrees C). Bake the casserole until browned, about 15 more minutes. Serve warm."}]</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"460\nCalories\n\n\n23g \nFat\n\n\n55g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699653640-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SRu0W5czkQsnBtK9KyIMKct3Xa0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Blueberry-French-Toast-Casserole-lutzflcat-1x1-1-4305f73a48d148d780170ca130222219.jpg"
@@ -912,69 +1217,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273080/blueberry-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Blueberry French Toast Casserole</t>
         </is>
       </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 8 hrs 30 mins\n\n\nTotal Time:\n 9 hrs 40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x13-inch casserole"}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"12 slices bread, cut into 1-inch cubes\n\n\n2 (8 ounce) packages cream cheese, cubed\n\n\n1 cup fresh blueberries\n\n\n12 large eggs\n\n\n2 cups milk\n\n\n⅓ cup maple syrup"},{"ingredients":"1 cup water\n\n\n1 cup white sugar\n\n\n2 tablespoons cornstarch\n\n\n1 cup fresh blueberries\n\n\n1 tablespoon unsalted butter"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 slices bread, cut into 1-inch cubes\n\n\n2 (8 ounce) packages cream cheese, cubed\n\n\n1 cup fresh blueberries\n\n\n12 large eggs\n\n\n2 cups milk\n\n\n⅓ cup maple syrup'}, {'recipe_ingredients': '1 cup water\n\n\n1 cup white sugar\n\n\n2 tablespoons cornstarch\n\n\n1 cup fresh blueberries\n\n\n1 tablespoon unsalted butter'}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13-inch pan and spread half of the bread cubes over the bottom. Top with cream cheese and 1 cup blueberries. Layer remaining bread cubes on top."},{"recipe_directions":"Mix together eggs, milk, and syrup in a bowl. Pour over the bread cubes in the pan. Cover and refrigerate for 8 hours, or overnight."},{"recipe_directions":"Remove from the refrigerator and let stand for 30 minutes."},{"recipe_directions":"Meanwhile, preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven, covered, for 30 minutes. Uncover and continue to bake until a knife inserted into the center comes out clean, about 25 minutes more."},{"recipe_directions":"While casserole bakes, combine water, sugar, and cornstarch for sauce. Bring to a boil until thickened. Reduce to a simmer and add blueberries and butter until cooked down. Serve on top of casserole or on the side."}]</t>
         </is>
       </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M12" s="1" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"403\nCalories\n\n\n21g \nFat\n\n\n43g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699653651-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -986,69 +1287,65 @@
 Mixed Berry French Toast Casserole</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280282/mixed-berry-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Mixed Berry French Toast Casserole</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 loaf French bread, cut into 1-inch cubes\n\n\n6 large eggs\n\n\n2 ½ cups milk\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 (8 ounce) package cream cheese, cut into 1/4-inch cubes\n\n\n1 (12 ounce) package mixed frozen berries"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 loaf French bread, cut into 1-inch cubes\n\n\n6 large eggs\n\n\n2 ½ cups milk\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 (8 ounce) package cream cheese, cut into 1/4-inch cubes\n\n\n1 (12 ounce) package mixed frozen berries'}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bread cubes in a large mixing bowl. Mix eggs, milk, vanilla extract, cinnamon, and nutmeg together in another bowl. Pour over bread cubes. Stir once or twice to make sure bread is evenly coated; be gentle when stirring in order to prevent bread from tearing."},{"recipe_directions":"Refrigerate bread mixture for 4 hours, to overnight."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Generously grease a 9x13-inch pan."},{"recipe_directions":"Pour bread mixture into the prepared pan. Sprinkle cream cheese cubes evenly bread. Top with berries. Mix gently to distribute thoroughly."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, 35 to 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"374\nCalories\n\n\n16g \nFat\n\n\n42g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699653660-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/O_sZs0Nq2wxSV-Qx3Yz4YTnvs2U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/950749-3ccd0936fa804d629d301f5284faab16.jpg"
@@ -1061,69 +1358,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285501/blueberry-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Blueberry French Toast Bake</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n6 large eggs\n\n\n2 cups milk\n\n\n⅓ cup maple syrup\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 (1 pound) loaf cinnamon swirl bread, cubed\n\n\n1 (8 ounce) package cream cheese, cut into cubes\n\n\n1 cup blueberries"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6 large eggs\n\n\n2 cups milk\n\n\n⅓ cup maple syrup\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n1 (1 pound) loaf cinnamon swirl bread, cubed\n\n\n1 (8 ounce) package cream cheese, cut into cubes\n\n\n1 cup blueberries'}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 10x13-inch baking dish with cooking spray."},{"recipe_directions":"Beat eggs in a bowl. Mix in milk, maple syrup, vanilla, cinnamon, and nutmeg."},{"recipe_directions":"Layer bread and cream cheese in the prepared dish. Sprinkle in blueberries. Pour milk mixture over top. Cover with foil and refrigerate for 1 hour, or overnight, stirring once, if desired, during soaking time to make sure bread cubes soak up the egg mixture."},{"recipe_directions":"When ready to bake, preheat the oven to 350 degrees F (175 degrees C). Meanwhile, remove baking dish from the refrigerator and let sit at room temperature for 10 minutes."},{"recipe_directions":"Bake, covered, in the preheated oven for 20 minutes. Remove foil and continue baking until the top is set and browned, about 30 more minutes."}]</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n11g \nFat\n\n\n30g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699653667-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/i5eVOPoFjNgOVo4P2a25jqPHWas=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/726626-6cb67afa50324a4482f9ee3191f3e85b.jpg"
@@ -1134,69 +1427,65 @@
 Savory French Toast Casserole</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282315/savory-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Savory French Toast Casserole</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (6 ounce) French baguette, sliced into 1/2-inch rounds\n\n\n2 large eggs\n\n\n2 medium red onions, finely chopped\n\n\n2 medium tomatoes, cored and diced\n\n\n½ cup chopped fresh mushrooms\n\n\n2 cloves garlic, finely chopped\n\n\n1 (1 inch) piece fresh ginger, finely chopped\n\n\n½ cup grated Cheddar cheese, divided\n\n\n½ teaspoon dried sage\n\n\n  salt and ground black pepper to taste\n\n\n¼ cup real bacon bits"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (6 ounce) French baguette, sliced into 1/2-inch rounds\n\n\n2 large eggs\n\n\n2 medium red onions, finely chopped\n\n\n2 medium tomatoes, cored and diced\n\n\n½ cup chopped fresh mushrooms\n\n\n2 cloves garlic, finely chopped\n\n\n1 (1 inch) piece fresh ginger, finely chopped\n\n\n½ cup grated Cheddar cheese, divided\n\n\n½ teaspoon dried sage\n\n\n  salt and ground black pepper to taste\n\n\n¼ cup real bacon bits'}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Arrange baguette slices in the bottom of a casserole dish."},{"recipe_directions":"Beat eggs well in a bowl. Add onions, tomatoes, mushrooms, garlic, and ginger in a bowl. Sprinkle 2 tablespoons of Cheddar cheese on top and mix until well combined. Add sage, salt, and pepper. Pour egg mixture over the baguette slices and sprinkle with bacon bits."},{"recipe_directions":"Bake in the preheated oven for 17 minutes. Sprinkle with remaining Cheddar and bake until fully melted, about 5 more minutes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"382\nCalories\n\n\n13g \nFat\n\n\n46g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699653675-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6hIY9IgFMPs5kJYTu0CwmWeAc-k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(767x0:769x2):format(webp)/6361631-01d50bebcc424155beb14d38defa47b1.jpg"
@@ -1207,69 +1496,65 @@
 Instant Pot French Toast Casserole</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270602/instant-pot-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Instant Pot French Toast Casserole</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6 thick slices stale bread, cut into cubes\n\n\n2  eggs, beaten\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground cinnamon, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n½ cup milk\n\n\n  cooking spray\n\n\n1 ½ cups water\n\n\n1 tablespoon butter, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 thick slices stale bread, cut into cubes\n\n\n2  eggs, beaten\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground cinnamon, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n½ cup milk\n\n\n  cooking spray\n\n\n1 ½ cups water\n\n\n1 tablespoon butter, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bread cubes into a large bowl. Mix eggs, sugar, salt, cinnamon, vanilla extract, and milk in a separate bowl. Pour mixture on top of bread cubes and mix well. Set aside for 15 to 20 minutes."},{"recipe_directions":"Spray baking dish very lightly with cooking spray. Pour bread-egg mixture into baking dish."},{"recipe_directions":"Pour water into a multi-functional pressure cooker (such as Instant Pot). Place trivet into pot and lower baking pan onto top of trivet. Close and lock the lid. Ensure vent is sealed. Select high pressure according to manufacturer's instructions; set timer for 15 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, about 10 minutes. Unlock and remove the lid. Remove baking dish using trivet handles."}]</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"211\nCalories\n\n\n8g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699653682-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/o9dut4lvmMGB61JYDrqULQoo0ik=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1035808-26c80910500048a0a28e99684945e9f9.jpg"
@@ -1282,69 +1567,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228552/caramel-french-toast/</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Caramel French Toast</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup brown sugar\n\n\n½ cup butter\n\n\n2 tablespoons light corn syrup\n\n\n¼ cup pecan halves (Optional)\n\n\n1  apple, sliced (Optional)\n\n\n12 slices bread\n\n\n6  eggs, beaten\n\n\n1 ½ cups milk\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon almond extract\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brown sugar\n\n\n½ cup butter\n\n\n2 tablespoons light corn syrup\n\n\n¼ cup pecan halves (Optional)\n\n\n1  apple, sliced (Optional)\n\n\n12 slices bread\n\n\n6  eggs, beaten\n\n\n1 ½ cups milk\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon almond extract\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13-inch baking dish."},{"recipe_directions":"Heat brown sugar, butter, and corn syrup in a saucepan over medium heat until thickened, about 5 minutes. Pour mixture into prepared baking dish and sprinkle with pecans. Arrange apple slices over pecans. Layer bread slices over apple in two layers."},{"recipe_directions":"Whisk eggs, milk, vanilla extract, almond extract, and salt in a bowl; pour over bread and allow to set for 1 hour at room temperature or cover and refrigerate overnight."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Uncover and bake in preheated oven until fluffy and golden brown, 40 to 45 minutes."}]</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"344\nCalories\n\n\n16g \nFat\n\n\n44g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699653691-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/v_gnNQMM4Ki3GJtOBf07GU3IPXM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1016430-f643c53bd6814c2fbdb170a27851cf93.jpg"
@@ -1357,69 +1638,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232910/crunchy-baked-french-toast/</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Crunchy Baked French Toast</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2  eggs\n\n\n¼ cup milk\n\n\n1 tablespoon white sugar\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n2 cups corn flakes cereal, crushed\n\n\n4 slices bread, toasted"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs\n\n\n¼ cup milk\n\n\n1 tablespoon white sugar\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n2 cups corn flakes cereal, crushed\n\n\n4 slices bread, toasted'}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Beat eggs, milk, sugar, vanilla extract, and cinnamon in a bowl; dip toast into egg mixture and press into crushed corn flakes until coated. Arrange coated toast in a single layer in a baking dish."},{"recipe_directions":"Bake in the preheated oven until lightly browned and crispy, 6 to 8 minutes per side."}]</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M18" s="1" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"357\nCalories\n\n\n7g \nFat\n\n\n59g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699653699-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qr5tuJ3khOc5vWMOiw-hOqKKueY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/760222-a1fe2ce10fde4e6db152cb9f897b1e6f.jpg"
@@ -1432,69 +1709,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217956/pear-and-almond-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Pear and Almond French Toast Casserole</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup butter, cut into 1/4-inch cubes\n\n\n½ cup brown sugar\n\n\n1 (29 ounce) can pear halves, cut lengthwise into 4 slices\n\n\n1 (1 pound) loaf sourdough bread, cut into 1-inch cubes\n\n\n2 ½ cups eggs\n\n\n1 ½ cups milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon almond extract\n\n\n¼ cup sliced almonds"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter, cut into 1/4-inch cubes\n\n\n½ cup brown sugar\n\n\n1 (29 ounce) can pear halves, cut lengthwise into 4 slices\n\n\n1 (1 pound) loaf sourdough bread, cut into 1-inch cubes\n\n\n2 ½ cups eggs\n\n\n1 ½ cups milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon almond extract\n\n\n¼ cup sliced almonds'}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Evenly distribute the butter cubes into the bottom of a 10x14-inch baking dish. Sprinkle the brown sugar over the butter. Arrange the pear slices into the bottom of the dish. Arrange the bread cubes into a single layer over the pears."},{"recipe_directions":"Mix the eggs, milk, sugar, vanilla extract, and almond extract together in a bowl until fully blended; pour evenly over the bread cubes, assuring all pieces are evenly covered. Cover the dish with aluminum foil and chill overnight in refrigerator."},{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C). Remove the casserole from the refrigerator and allow to warm while the oven preheats."},{"recipe_directions":"Bake in the preheated oven until the top of the bread is golden brown and the eggs have solidified, 45 to 60 minutes. Top with the sliced almonds to serve."}]</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M19" s="1" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"192\nCalories\n\n\n7g \nFat\n\n\n26g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699653708-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NnwVEuZQc9LCXCIjX5JBSJTy_P8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/875543-2fbebeb3622b475f89f58114e0026966.jpg"
@@ -1507,69 +1780,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/203240/blueberry-stuffed-french-toast/</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Blueberry Stuffed French Toast</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"16 slices firm white bread\n\n\n1 (8 ounce) package Neufchatel cheese, softened\n\n\n1 cup blueberries\n\n\n3 cups milk\n\n\n3  eggs\n\n\n⅓ cup maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup white sugar\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ cup white sugar\n\n\n2 tablespoons cornstarch\n\n\n1 cup water\n\n\n1 cup white sugar\n\n\n1 tablespoon butter\n\n\n1 cup blueberries"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '16 slices firm white bread\n\n\n1 (8 ounce) package Neufchatel cheese, softened\n\n\n1 cup blueberries\n\n\n3 cups milk\n\n\n3  eggs\n\n\n⅓ cup maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup white sugar\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ cup white sugar\n\n\n2 tablespoons cornstarch\n\n\n1 cup water\n\n\n1 cup white sugar\n\n\n1 tablespoon butter\n\n\n1 cup blueberries'}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13 inch baking dish with butter. Cut 10 slices of the bread into 3/4 inch cubes. Spread Neufchatel cheese over one side of the remaining 6 slices of bread. Arrange the bread, cheese side up, in the baking dish. Sprinkle with 1 cup of the blueberries, then top with the bread cubes."},{"recipe_directions":"Whisk together the milk, eggs, maple syrup, vanilla extract, and 1/4 cup of sugar in a bowl. Pour over the bread. Cover and refrigerate overnight."},{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix together the nutmeg and 1/4 cup of sugar in a small bowl. Sprinkle over bread mixture. Cover with foil and bake in the preheated oven until a knife inserted into the center comes out clean, 20 to 30 minutes. Cool in the pan for 5 minutes before serving."},{"recipe_directions":"To make compote: Heat cornstarch, water and remaining 1 cup of sugar over medium heat and bring to a simmer, cooking until thickened, about 3 minutes. Remove from heat and stir in butter and the remaining 1 cup of blueberries. Serve with the french toast."}]</t>
         </is>
       </c>
-      <c r="L20" s="1" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M20" s="1" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"334\nCalories\n\n\n9g \nFat\n\n\n56g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699653716-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DloXHFfyNYy1mp0A_OphfP5Cn5c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3397499-36e8162b53984c1e81f96d03bbdd2c15.jpg"
@@ -1582,69 +1851,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246318/banana-cinnamon-roll-casserole/</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Banana Cinnamon Roll Casserole</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n8 \n\n\nYield:\n4 cinnamon rolls"}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 large stale cinnamon rolls\n\n\n1 ½ cups milk\n\n\n5  eggs\n\n\n2 teaspoons vanilla extract\n\n\n2 teaspoons ground cinnamon\n\n\n2  bananas, divided\n\n\n½ cup brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large stale cinnamon rolls\n\n\n1 ½ cups milk\n\n\n5  eggs\n\n\n2 teaspoons vanilla extract\n\n\n2 teaspoons ground cinnamon\n\n\n2  bananas, divided\n\n\n½ cup brown sugar'}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice cinnamon rolls into 1-inch squares. Whisk milk, eggs, vanilla extract, and cinnamon together in a bowl."},{"recipe_directions":"Slice 1 banana and layer on bottom of a 9x13-inch baking dish; top with brown sugar. Layer cinnamon roll squares on top of banana. Pour egg mixture over cinnamon rolls; press cinnamon rolls with a spatula to allow egg mixture to fully coat. Cover with aluminum foil and refrigerate until egg mixture is absorbed, 1 hour to overnight."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bake in preheated oven until firm, about 50 minutes. Remove aluminum foil and bake until golden brown, about 10 minutes more. Remove from oven and let stand for 10 minutes. Slice remaining banana and place on top to serve."}]</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="M21" s="1" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"305\nCalories\n\n\n11g \nFat\n\n\n44g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699653721-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WU4a0oeZwgXUi1CxRkjXMtb-4mg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/92096de4-8d1c-4c31-988f-fbce8701163c-0285500f8dc84d7bbd3f85184c490e20.png"
@@ -1656,69 +1921,65 @@
 Panettone French Toast Casserole</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282609/panettone-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Panettone French Toast Casserole</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n½ cup packed light brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon kosher salt\n\n\n8 large eggs\n\n\n2 cups whole milk\n\n\n2 cups heavy cream, divided\n\n\n  cooking spray\n\n\n1 (26.5 ounce) loaf panettone\n\n\n2 tablespoons salted butter, melted\n\n\n1 tablespoon white sugar\n\n\n1 (6 ounce) container fresh raspberries\n\n\n½ cup toasted sliced almonds\n\n\n1 tablespoon powdered sugar"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package cream cheese, softened\n\n\n½ cup packed light brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon kosher salt\n\n\n8 large eggs\n\n\n2 cups whole milk\n\n\n2 cups heavy cream, divided\n\n\n  cooking spray\n\n\n1 (26.5 ounce) loaf panettone\n\n\n2 tablespoons salted butter, melted\n\n\n1 tablespoon white sugar\n\n\n1 (6 ounce) container fresh raspberries\n\n\n½ cup toasted sliced almonds\n\n\n1 tablespoon powdered sugar'}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cream cheese and brown sugar in a stand mixer fitted with the paddle attachment; beat at medium speed until smooth and creamy. Beat in vanilla and salt until well incorporated. Add eggs one at a time, beating until well blended. Gradually add milk and 1 cup cream, beating at low speed, until well incorporated."},{"recipe_directions":"Lightly grease a 9x13-inch baking dish with cooking spray."},{"recipe_directions":"Cut panettone loaf into 1/2-inch-thick slices. Arrange slices in 2 or 3 rows, overlapping slightly, starting from a short end of the baking dish."},{"recipe_directions":"Pour cream cheese-egg mixture evenly over the panettone slices, gently shaking the baking dish to evenly distribute the liquid. Cover with aluminum foil and refrigerate, 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Uncover the baking dish. Brush melted butter over the casserole; sprinkle with sugar."},{"recipe_directions":"Bake in the preheated oven for 30 minutes. Rotate the baking dish 180 degrees and continue baking until the custard is set in the center, about 30 minutes more. Cover with foil during the last 10 minutes of baking to prevent overbrowning, if necessary."},{"recipe_directions":"Meanwhile, beat remaining heavy cream and powdered sugar in a medium bowl using a hand mixer on high speed until semi-firm peaks form, 2 to 3 minutes. Serve casserole warm with whipped cream, raspberries, and almonds."}]</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M22" s="1" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"680\nCalories\n\n\n43g \nFat\n\n\n66g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699653730-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lQ0aKeN3m_opAk6e-kpBJ_59XjU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/963154-58f6cc1a53f9429fa5d5ae8a30d093ff.jpg"
@@ -1731,69 +1992,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230459/syrup-on-the-bottom-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Syrup on the Bottom French Toast Casserole</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 10 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x13-inch casserole"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups dark brown sugar\n\n\n¾ cup unsalted butter\n\n\n6 tablespoons light corn syrup\n\n\n½ cup whole milk\n\n\n⅛ teaspoon salt\n\n\n1 (1 pound) loaf challah bread, cut into 1/2-inch slices\n\n\n2 ½ cups whole milk\n\n\n4 large eggs, beaten\n\n\n1 ½ teaspoons vanilla extract\n\n\n¼ teaspoon salt\n\n\n3 tablespoons white sugar\n\n\n1 ½ teaspoons ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups dark brown sugar\n\n\n¾ cup unsalted butter\n\n\n6 tablespoons light corn syrup\n\n\n½ cup whole milk\n\n\n⅛ teaspoon salt\n\n\n1 (1 pound) loaf challah bread, cut into 1/2-inch slices\n\n\n2 ½ cups whole milk\n\n\n4 large eggs, beaten\n\n\n1 ½ teaspoons vanilla extract\n\n\n¼ teaspoon salt\n\n\n3 tablespoons white sugar\n\n\n1 ½ teaspoons ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lightly grease a 9x13-inch casserole dish."},{"recipe_directions":"Combine brown sugar, butter, corn syrup, 1/2 cup whole milk, and 1/8 teaspoon salt in a saucepan over medium heat; cook, stirring constantly, until sugar is dissolved and syrup is smooth, about 5 minutes. Pour syrup into the prepared casserole dish."},{"recipe_directions":"Arrange bread slices atop the syrup layer in the casserole dish."},{"recipe_directions":"Whisk 2 1/2 cups milk, eggs, vanilla extract, and 1/4 teaspoon salt in a bowl; pour milk mixture over bread. Cover casserole dish with plastic wrap and refrigerate 8 hours or overnight."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Remove plastic wrap from casserole dish."},{"recipe_directions":"Mix white sugar and cinnamon together in a small bowl; sprinkle mixture over casserole. Cover casserole with aluminum foil."},{"recipe_directions":"Bake in the preheated oven for 20 minutes. Remove aluminum foil and continue baking until casserole is cooked through and eggs are set, 25 to 30 minutes. The casserole will be syrupy, but should thicken as it cools."}]</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"382\nCalories\n\n\n17g \nFat\n\n\n50g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699653736-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uWzTZyMrCeT6cCSp2YZHolXfaPY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/970280-43c51b6a60c444b0a02b0c1725faf9c2.jpg"
@@ -1806,69 +2063,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230515/praline-pecan-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Praline Pecan French Toast Casserole</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups half-and-half\n\n\n8  eggs\n\n\n2 tablespoons vanilla extract\n\n\n1 tablespoon dark brown sugar\n\n\n8 slices French bread\n\n\n¼ cup butter, or more as needed\n\n\n¾ cup brown sugar\n\n\n½ cup maple syrup\n\n\n¾ cup chopped pecans\n\n\n2 tablespoons confectioners sugar, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups half-and-half\n\n\n8  eggs\n\n\n2 tablespoons vanilla extract\n\n\n1 tablespoon dark brown sugar\n\n\n8 slices French bread\n\n\n¼ cup butter, or more as needed\n\n\n¾ cup brown sugar\n\n\n½ cup maple syrup\n\n\n¾ cup chopped pecans\n\n\n2 tablespoons confectioners sugar, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix half-and-half, eggs, vanilla, and 1 tablespoon dark brown sugar together in a large shallow bowl; add French bread. Cover bowl with plastic wrap and refrigerate 8 hours to overnight."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place butter in a 9x13-inch casserole dish. Place casserole dish in the preheating oven to melt butter, about 5 minutes. Swirl butter over bottom of the dish."},{"recipe_directions":"Spread brown sugar, maple syrup, and pecans over the melted butter. Arrange soaked bread atop pecan mixture."},{"recipe_directions":"Bake in the preheated oven until French toast is cooked through, 30 to 35 minutes. Sprinkle with confectioners' sugar."}]</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"}]</t>
         </is>
       </c>
-      <c r="M24" s="1" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"460\nCalories\n\n\n24g \nFat\n\n\n50g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699653742-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P0OU4LYqUuN8tpp9msCwrN2pmDI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4033697-d6d5226bdb344e4381e0744794ea44a9.jpg"
@@ -1881,69 +2134,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241984/baked-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Baked French Toast Casserole</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6  large eggs\n\n\n2 cups half-and-half\n\n\n1 cup low-fat milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon nutmeg\n\n\n1 pinch salt\n\n\n1 loaf French bread, cut into 1-inch slices"},{"ingredients":"1 cup chopped pecans\n\n\n1 cup light brown sugar\n\n\n1 cup unsalted butter, melted\n\n\n2 teaspoons light corn syrup\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon ground nutmeg\n\n\n2 tablespoons confectioners' sugar, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  large eggs\n\n\n2 cups half-and-half\n\n\n1 cup low-fat milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon nutmeg\n\n\n1 pinch salt\n\n\n1 loaf French bread, cut into 1-inch slices'}, {'recipe_ingredients': "1 cup chopped pecans\n\n\n1 cup light brown sugar\n\n\n1 cup unsalted butter, melted\n\n\n2 teaspoons light corn syrup\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon ground nutmeg\n\n\n2 tablespoons confectioners' sugar, or to taste (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Generously butter a 9x13-inch baking dish."},{"recipe_directions":"Whisk eggs, half-and-half, milk, white sugar, vanilla extract, 1 teaspoon cinnamon, 1 teaspoon nutmeg, and salt together in a bowl. Dip each bread slice into egg mixture and arrange in overlapping rows in the prepared baking dish. Cover dish with plastic wrap and refrigerate, 8 hours to overnight."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix pecans, brown sugar, butter, corn syrup, 1 teaspoon cinnamon, and 1 teaspoon nutmeg together in a bowl; spread evenly over bread in the baking dish."},{"recipe_directions":"Bake in the preheated oven until cooked through and golden brown, about 45 minutes. Generously top French toast with confectioners' sugar."}]</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"}]</t>
         </is>
       </c>
-      <c r="M25" s="1" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"596\nCalories\n\n\n36g \nFat\n\n\n58g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699653747-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F-GHh1Ef1PspJ81iWDQNhHkjMQI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/overnight-blueberry-french-toast-casserole-830a5903bcc747dd80e4b224ad2e3778.jpg"
@@ -1955,69 +2204,65 @@
 11 Baked French Toast Casseroles That Make Brunch Easy</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/baked-french-toast-casserole-recipes/</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>11 Baked French Toast Casseroles That Make Brunch Easy</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M26" s="1" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699653752-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lYW7sB581paBN_0Rkxk-wLTk4q8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(690x0:692x2):format(webp)/7985321-f382fa2a5b164df883878f00a49a9f9b.jpg"
@@ -2030,69 +2275,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275839/baked-overnight-french-toast-casserole-with-praline-topping/</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Baked Overnight French Toast Casserole with Praline Topping</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 loaf French bread, cut into 1-inch slices\n\n\n8  eggs\n\n\n2 cups half-and-half\n\n\n1 cup milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon salt"},{"ingredients":"1 cup butter, softened\n\n\n1 cup packed brown sugar\n\n\n1 cup chopped toasted pecans\n\n\n2 teaspoons light corn syrup\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 loaf French bread, cut into 1-inch slices\n\n\n8  eggs\n\n\n2 cups half-and-half\n\n\n1 cup milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon salt'}, {'recipe_ingredients': '1 cup butter, softened\n\n\n1 cup packed brown sugar\n\n\n1 cup chopped toasted pecans\n\n\n2 teaspoons light corn syrup\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13-inch baking pan and arrange bread slices in a row."},{"recipe_directions":"Combine eggs, half-and-half, milk, sugar, vanilla extract, cinnamon, nutmeg, and salt in a large bowl. Beat using an electric mixer until blended. Pour mixture over bread slices, making sure all are evenly covered. Cover baking dish with aluminum foil and refrigerate, 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine butter, brown sugar, chopped pecans, corn syrup, cinnamon, and nutmeg in a bowl. Spread praline topping over bread mixture."},{"recipe_directions":"Bake in the preheated oven until puffed and lightly golden, about 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"502\nCalories\n\n\n31g \nFat\n\n\n47g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699653757-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6pry3PXFIVQjHVrlhTMp9lGrhWE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1449378-d9d5255391f0422388bf522074ae23c9.jpg"
@@ -2105,69 +2346,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45620/apple-raisin-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Apple-Raisin French Toast Casserole</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup butter, melted\n\n\n3  apples - peeled, cored and sliced\n\n\n½ cup raisins\n\n\n1 (1 pound) loaf French baguette, cut into 1 inch slices\n\n\n6  eggs, lightly beaten\n\n\n1 ½ cups milk\n\n\n1 tablespoon vanilla extract\n\n\n2 teaspoons ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup butter, melted\n\n\n3  apples - peeled, cored and sliced\n\n\n½ cup raisins\n\n\n1 (1 pound) loaf French baguette, cut into 1 inch slices\n\n\n6  eggs, lightly beaten\n\n\n1 ½ cups milk\n\n\n1 tablespoon vanilla extract\n\n\n2 teaspoons ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13 inch baking dish. In a large bowl, mix together brown sugar and 1 teaspoon cinnamon. Mix in melted butter. Stir in apples and raisins until evenly coated. Pour into prepared pan. Arrange bread slices in an even layer over apples."},{"recipe_directions":"In the bowl, whisk together eggs, milk, vanilla and 2 teaspoons cinnamon. Pour over bread, making sure every slice is fully soaked. Cover with aluminum foil, and refrigerated overnight."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Remove dish from refrigerator while the oven is heating. Bake covered for 40 minutes. Remove cover, and bake 5 minutes. Let stand 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"341\nCalories\n\n\n12g \nFat\n\n\n52g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699653770-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JO5wqIMK_cHe5D0Wvlq0t9AjPIQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6571-1125abeb6254486fbc96221b4110ccbe.jpg"
@@ -2180,69 +2417,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20935/french-toast-souffle/</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>French Toast Soufflé</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs 30 mins\n\n\nTotal Time:\n 9 hrs 20 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x13-inch soufflé"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n10 cups white bread cubes\n\n\n1 (8 ounce) package low-fat cream cheese, softened\n\n\n8  eggs\n\n\n1 ½ cups milk\n\n\n⅔ cup half-and-half cream\n\n\n½ cup maple syrup\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons confectioners' sugar"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "cooking spray\n\n\n10 cups white bread cubes\n\n\n1 (8 ounce) package low-fat cream cheese, softened\n\n\n8  eggs\n\n\n1 ½ cups milk\n\n\n⅔ cup half-and-half cream\n\n\n½ cup maple syrup\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons confectioners' sugar"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray a 9x13-inch baking pan with cooking spray; add bread cubes."},{"recipe_directions":"In a large bowl, beat cream cheese with an electric mixer on medium speed until smooth. Add eggs, one at a time, mixing well after each addition. Stir in milk, half-and-half, maple syrup, and vanilla until mixture is smooth; pour over bread cubes. Cover and refrigerate, 8 hours to overnight."},{"recipe_directions":"The next morning, remove soufflé from the refrigerator and let stand at room temperature for 30 minutes. Meanwhile, preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bake soufflé, uncovered, in the preheated oven until a knife inserted in the center comes out clean, about 30 minutes. Serve warm, sprinkled with confectioners' sugar."}]</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n10g \nFat\n\n\n28g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699653776-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cp3RL6tx7vbT9gRqWA7VRFfIx3Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1554979-62885c5d78d141b5a3107442de133d1b.jpg"
@@ -2255,69 +2488,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239395/baked-apple-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Baked Apple French Toast Casserole</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n1 7x11-inch dish"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray\n\n\n4  eggs, beaten\n\n\n½ cup half-and-half\n\n\n½ cup milk\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon vanilla extract\n\n\n1 (8 ounce) loaf French bread, cut into small cubes\n\n\n¼ cup butter\n\n\n3 Granny Smith apples, peeled, cored, and cut into small dice\n\n\n¼ cup brown sugar\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n4  eggs, beaten\n\n\n½ cup half-and-half\n\n\n½ cup milk\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon vanilla extract\n\n\n1 (8 ounce) loaf French bread, cut into small cubes\n\n\n¼ cup butter\n\n\n3 Granny Smith apples, peeled, cored, and cut into small dice\n\n\n¼ cup brown sugar\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Prepare a 7x11-inch baking dish with cooking spray."},{"recipe_directions":"Beat eggs, half-and-half, milk, white sugar, and vanilla extract together in a large bowl; add bread cubes and stir to coat. Let soak until bread is moist, at least 10 minutes."},{"recipe_directions":"Melt butter in a skillet over medium heat. Stir apples and brown sugar into the melted butter to moisten sugar completely; add cinnamon and cook, stirring regularly, until apples are warmed yet still firm, 5 to 7 minutes."},{"recipe_directions":"Stir apple mixture into bread mixture; pour into the prepared baking dish."},{"recipe_directions":"Bake in preheated oven until golden on top and still somewhat soft in the center, 35 to 45 minutes."}]</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"French"}]</t>
         </is>
       </c>
-      <c r="M30" s="1" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"342\nCalories\n\n\n14g \nFat\n\n\n44g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699653781-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lB-Ap5FehLIMd8YECTaPMi89TBE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8561027-568c6b4fe04a4b20bc52155fc1a9f30e.jpg"
@@ -2330,69 +2559,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17295/baked-caramel-apple-french-toast/</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Baked Caramel-Apple French Toast</t>
         </is>
       </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 13 hrs 20 mins\n\n\nTotal Time:\n 15 hrs\n\n\nServings:\n12 \n\n\nYield:\n18 pieces"}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (1 pound) loaf French bread, sliced\n\n\n6  eggs\n\n\n1 ½ cups skim milk\n\n\n⅓ cup white sugar\n\n\n1 tablespoon vanilla extract\n\n\n6  apple - peeled, cored and sliced\n\n\n1 ½ teaspoons ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n2 tablespoons white sugar\n\n\n½ cup white sugar\n\n\n¼ cup all-purpose flour\n\n\n½ cup margarine, melted\n\n\n½ cup brown sugar\n\n\n½ cup skim milk\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 pound) loaf French bread, sliced\n\n\n6  eggs\n\n\n1 ½ cups skim milk\n\n\n⅓ cup white sugar\n\n\n1 tablespoon vanilla extract\n\n\n6  apple - peeled, cored and sliced\n\n\n1 ½ teaspoons ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n2 tablespoons white sugar\n\n\n½ cup white sugar\n\n\n¼ cup all-purpose flour\n\n\n½ cup margarine, melted\n\n\n½ cup brown sugar\n\n\n½ cup skim milk\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut bread into 1 1/2 inch thick slices and place in a lightly greased 9x13 inch baking pan. In a large bowl, beat eggs with 1 1/2 cup skim milk, 1/3 cup white sugar, and 1 tablespoon vanilla. Pour egg mixture over bread slices."},{"recipe_directions":"Arrange apple slices on top of bread. Sprinkle cinnamon, nutmeg, and 2 tablespoons white sugar over apples. Cover, and refrigerate overnight."},{"recipe_directions":"In the morning: Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake toast in preheated oven until golden brown, about 1 hour. Meanwhile, combine 1/2 cup white sugar, flour, and margarine. Stir in brown sugar, 1/2 cup skim milk, and 2 teaspoons vanilla in a small saucepan. Cook until thick. Serve French toast hot with warm sauce."}]</t>
         </is>
       </c>
-      <c r="L31" s="1" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="M31" s="1" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"361\nCalories\n\n\n11g \nFat\n\n\n57g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699653788-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C0_CxdNZg293Xi6exMNAIsowrr8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2478x0:2480x2):format(webp)/8208570-0ef61e4cf998412c8cb51d85b56afae8.jpg"
@@ -2405,69 +2630,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280408/cinnamon-roll-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Cinnamon Roll French Toast Casserole</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9x13-inch casserole"}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (12.4 ounce) can refrigerated cinnamon rolls with icing (such as Pillsbury® Refrigerated Cinnamon Rolls with Icing)\n\n\n1 tablespoon unsalted butter, melted\n\n\n3 large eggs\n\n\n¼ cup milk\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon maple extract\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12.4 ounce) can refrigerated cinnamon rolls with icing (such as Pillsbury® Refrigerated Cinnamon Rolls with Icing)\n\n\n1 tablespoon unsalted butter, melted\n\n\n3 large eggs\n\n\n¼ cup milk\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon maple extract\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Coat a 9x13-inch baking pan with melted butter."},{"recipe_directions":"Cut each cinnamon roll into 8 pieces and put into the prepared pan."},{"recipe_directions":"Mix eggs, milk, vanilla extract, maple extract, and cinnamon together in a bowl and pour over the rolls."},{"recipe_directions":"Bake in the preheated oven until golden and set, 23 to 30 minutes. Cover with packaged icing and serve."}]</t>
         </is>
       </c>
-      <c r="L32" s="1" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M32" s="1" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"197\nCalories\n\n\n9g \nFat\n\n\n24g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699653792-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HqZnEse5tGt1qhyaQYJtMLIr3kk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1x1-PASSANO_ALR1122_Makeovers_2770-b2a4cebc01cb407ea14cdc35747d1394.jpg"
@@ -2481,69 +2702,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245145/easy-baked-banana-french-toast/</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Easy Baked Banana French Toast</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"8  eggs\n\n\n1 ¾ cups milk\n\n\n⅓ cup brown sugar\n\n\n¼ cup butter, melted\n\n\n1 tablespoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n12 slices wheat bread, cubed\n\n\n2  bananas, sliced"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  eggs\n\n\n1 ¾ cups milk\n\n\n⅓ cup brown sugar\n\n\n¼ cup butter, melted\n\n\n1 tablespoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n12 slices wheat bread, cubed\n\n\n2  bananas, sliced'}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease 9x13-inch baking dish."},{"recipe_directions":"Whisk eggs, milk, brown sugar, butter, vanilla extract, ground cinnamon, and ground nutmeg together in a bowl. Stir bread cubes and bananas into egg mixture until coated; pour into prepared baking dish."},{"recipe_directions":"Bake in preheated oven until a knife inserted in center comes out clean, 35 to 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"405\nCalories\n\n\n18g \nFat\n\n\n47g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699653798-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a0EEY9jykUUWBry2AtKLNxfisc0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2291340-3b62f83f10684223b0c273354de5daeb.jpg"
@@ -2556,69 +2773,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242196/overnight-blueberry-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Overnight Blueberry French Toast Casserole</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 45 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n1 cup confectioners' sugar\n\n\n2 tablespoons milk\n\n\n1 tablespoon vanilla extract, divided\n\n\n2 cups blueberries, divided\n\n\n2 loaves French bread, cubed\n\n\n2 cups milk\n\n\n8  eggs\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (8 ounce) package cream cheese, softened\n\n\n1 cup confectioners' sugar\n\n\n2 tablespoons milk\n\n\n1 tablespoon vanilla extract, divided\n\n\n2 cups blueberries, divided\n\n\n2 loaves French bread, cubed\n\n\n2 cups milk\n\n\n8  eggs\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg"}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cream cheese, confectioners' sugar, 2 tablespoons milk, and 1 teaspoon vanilla extract in a bowl until smooth and creamy; fold in 1 cup blueberries."},{"recipe_directions":"Cover the bottom of a 10x14-inch baking dish with a layer of bread cubes. Spread cream cheese mixture over bread layer; top with remaining bread cubes."},{"recipe_directions":"Whisk 2 cups milk, eggs, 2 teaspoons vanilla extract, cinnamon, and nutmeg together in a large bowl; pour over bread mixture. Sprinkle 1 cup blueberries over bread-egg mixture. Cover dish tightly with aluminum foil and refrigerate, 8 hours to overnight. Remove from refrigerator 30 to 60 minutes before baking."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bake in the preheated oven for 45 minutes. Remove foil and continue baking until the center is set, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"494\nCalories\n\n\n15g \nFat\n\n\n72g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699653805-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kZRMxJ7f0MtGQq9mszmUKEOOCn8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9407675-94ab0cf41a6d485480135a2c259ac154.jpg"
@@ -2631,69 +2844,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285498/french-toast-bake-with-cream-cheese/</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>French Toast Bake with Cream Cheese</t>
         </is>
       </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (8 ounce) tub whipped cream cheese\n\n\n9 thick slices bread\n\n\n8 large eggs\n\n\n2 cups milk\n\n\n½ cup pure maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n1 pinch ground cinnamon\n\n\n1 pinch ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) tub whipped cream cheese\n\n\n9 thick slices bread\n\n\n8 large eggs\n\n\n2 cups milk\n\n\n½ cup pure maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n1 pinch ground cinnamon\n\n\n1 pinch ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Spread cream cheese in a thick layer onto the bread slices and cut bread into cubes. Layer in the bottom of a 9-inch square baking dish."},{"recipe_directions":"Whisk eggs, milk, maple syrup, vanilla, cinnamon, and nutmeg in a bowl until well combined. Pour over bread cubes and pat gently until bread is evenly soaked. Let sit for 5 to 10 minutes."},{"recipe_directions":"Bake in the preheated oven until eggs are cooked and fluffy, 35 to 45 minutes."}]</t>
         </is>
       </c>
-      <c r="L35" s="1" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Casserole Recipes"},{"recipe_tags":"French Toast Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="M35" s="1" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"343\nCalories\n\n\n17g \nFat\n\n\n35g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699653811-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k2pO8AZY43GF7GpwpPqclRoR5fk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/718700-pumpkin-french-toast-bake-Alberta-Rose-1x1-1-a33205a9b1f04a94a1b10f6a9defa05d.jpg"
@@ -2707,69 +2916,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217955/pumpkin-french-toast-bake/</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Pumpkin French Toast Bake</t>
         </is>
       </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"8  eggs\n\n\n1 teaspoon vanilla extract\n\n\n2 teaspoons ground cinnamon\n\n\n½ teaspoon ground cloves\n\n\n¼ teaspoon ground nutmeg\n\n\n1 tablespoon white sugar\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 loaf Texas toast thick-sliced bread, cut into 1-inch cubes\n\n\n⅓ cup brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n2 tablespoons all-purpose flour\n\n\n1 tablespoon butter, softened"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  eggs\n\n\n1 teaspoon vanilla extract\n\n\n2 teaspoons ground cinnamon\n\n\n½ teaspoon ground cloves\n\n\n¼ teaspoon ground nutmeg\n\n\n1 tablespoon white sugar\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 loaf Texas toast thick-sliced bread, cut into 1-inch cubes\n\n\n⅓ cup brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n2 tablespoons all-purpose flour\n\n\n1 tablespoon butter, softened'}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 9x13-inch baking dish."},{"recipe_directions":"Whisk the eggs, vanilla extract, 2 teaspoons of cinnamon, the cloves, nutmeg, and white sugar together in a bowl; beat in the pumpkin until fully incorporated."},{"recipe_directions":"Arrange the bread cubes in a single layer in the prepared baking dish; pour the pumpkin mixture over the bread cubes, and gently toss to coat."},{"recipe_directions":"Stir 1/3 cup of brown sugar, 1/4 teaspoon of cinnamon, flour, and butter together with a fork in a small bowl until the mixture is crumbly; sprinkle over the bread cubes."},{"recipe_directions":"Bake in preheated oven until golden brown on top, 30 to 40 minutes."}]</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M36" s="1" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"305\nCalories\n\n\n9g \nFat\n\n\n46g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699653817-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XiBB5g0t4RVZt6cM9oBBoNFof4w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x539:401x541):format(webp)/230244-praline-pecan-french-toast-mfs-45-1cb2e8036aa64bfc8ac9cfaed1dff5f8.jpg"
@@ -2783,69 +2988,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230244/praline-pecan-french-toast/</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Praline Pecan French Toast</t>
         </is>
       </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6  eggs\n\n\n1 ½ cups half-and-half\n\n\n1 tablespoon brown sugar\n\n\n2 teaspoons vanilla extract\n\n\n1 (12 ounce) loaf French bread, sliced 1-inch thick\n\n\n1 tablespoon butter\n\n\n¾ cup firmly packed brown sugar\n\n\n½ cup maple syrup\n\n\n¾ cup chopped toasted pecans"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  eggs\n\n\n1 ½ cups half-and-half\n\n\n1 tablespoon brown sugar\n\n\n2 teaspoons vanilla extract\n\n\n1 (12 ounce) loaf French bread, sliced 1-inch thick\n\n\n1 tablespoon butter\n\n\n¾ cup firmly packed brown sugar\n\n\n½ cup maple syrup\n\n\n¾ cup chopped toasted pecans'}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x13-inch baking dish."},{"recipe_directions":"Whisk eggs, half-and-half, 1 tablespoon brown sugar, and vanilla extract in a bowl until mixture is smooth and brown sugar has dissolved. Pour 1 cup egg mixture into prepared baking dish. Arrange slices of French bread into baking dish and pour remaining egg mixture evenly over bread. Cover and refrigerate overnight."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Melt butter in a saucepan over medium heat; mix 3/4 cup brown sugar and maple syrup into butter, stirring until smooth. Bring syrup to a boil, reduce heat to low, and simmer for 1 minute, stirring constantly. Stir pecans into syrup. Spoon pecan praline syrup evenly over French toast casserole."},{"recipe_directions":"Bake casserole in the preheated oven until set and golden brown, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="L37" s="1" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M37" s="1" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"465\nCalories\n\n\n19g \nFat\n\n\n63g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699653823-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dvHXkGjom065J3W-y2lutN33jPY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1041565-e042ffca45fb48478c9b461e92d6e873.jpg"
@@ -2858,69 +3059,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233057/raisin-bread-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Raisin Bread French Toast Casserole</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 cups cubed cinnamon raisin bread\n\n\n1 ½ cups milk\n\n\n4  eggs\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n3 tablespoons softened butter, cut into chunks\n\n\n2 teaspoons ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 cups cubed cinnamon raisin bread\n\n\n1 ½ cups milk\n\n\n4  eggs\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n3 tablespoons softened butter, cut into chunks\n\n\n2 teaspoons ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly butter an 8x8-inch baking pan."},{"recipe_directions":"Pour bread cubes into the prepared pan."},{"recipe_directions":"Beat milk, eggs, sugar, and vanilla extract together in a bowl until evenly mixed; pour mixture over bread cubes. Arrange butter chunks atop bread mixture. Set aside for bread to absorb liquid, about 10 minutes. Sprinkle with cinnamon."},{"recipe_directions":"Bake in the preheated oven until top is golden, 45 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M38" s="1" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n12g \nFat\n\n\n27g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699653830-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/chhi951dI9mFyf1EomoaFSQrfvc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6198063-overnight-eggnog-french-toast-patapower-4x3-1-4d6a1466876945bea4b2cd9d431e51c9.jpg"
@@ -2934,69 +3131,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217954/overnight-eggnog-french-toast/</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Overnight Eggnog French Toast</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n1 (9x13-inch) casserole"}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup brown sugar\n\n\n½ cup butter\n\n\n2 tablespoons light corn syrup\n\n\n1 loaf French bread, cut into 1-inch slices\n\n\n8 large eggs\n\n\n2 cups prepared eggnog"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brown sugar\n\n\n½ cup butter\n\n\n2 tablespoons light corn syrup\n\n\n1 loaf French bread, cut into 1-inch slices\n\n\n8 large eggs\n\n\n2 cups prepared eggnog'}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients and lightly grease a 9x13-inch baking dish."},{"recipe_directions":"Heat brown sugar, butter, and corn syrup in a small saucepan over medium heat. Cook and stir until mixture begins to boil; remove the mixture from heat, and pour into the prepared baking dish."},{"recipe_directions":"Place bread slices atop brown sugar mixture."},{"recipe_directions":"Whisk eggs and eggnog together in a large bowl; pour over bread slices. Cover the baking dish with aluminum foil, and refrigerate 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Remove the baking dish from the refrigerator."},{"recipe_directions":"Bake in the preheated oven, covered, until custard has set, about 35 to 40 minutes. Increase heat to 375 degrees F (190 degrees C); remove the aluminum foil, and continue baking until the the top is golden brown, about 5 minutes more."}]</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M39" s="1" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"723\nCalories\n\n\n30g \nFat\n\n\n96g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699653835-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DSORbsadumUfoJdPlti6EuTIYVk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Overnight-French-Toast-Casserole-1x1-1-6d886549655f4c9a9c4cc02c60dd1fa8.jpg"
@@ -3010,69 +3203,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275838/overnight-french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Overnight French Toast Casserole</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs\n\n\nServings:\n5 \n\n\nYield:\n10 slices"}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 sticks butter, melted\n\n\n2 cups light brown sugar\n\n\n2 teaspoons cinnamon\n\n\n1 loaf French bread, cut into 2-inch slices\n\n\n2 cups milk\n\n\n8  eggs, beaten\n\n\n1 teaspoon vanilla extract\n\n\n  aluminum foil"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 sticks butter, melted\n\n\n2 cups light brown sugar\n\n\n2 teaspoons cinnamon\n\n\n1 loaf French bread, cut into 2-inch slices\n\n\n2 cups milk\n\n\n8  eggs, beaten\n\n\n1 teaspoon vanilla extract\n\n\n  aluminum foil'}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour melted butter into an 11x15-inch baking dish. Sprinkle brown sugar and cinnamon over the butter and top with bread slices, making sure slices are placed close together."},{"recipe_directions":"Mix milk, eggs, and vanilla extract in a bowl until thoroughly combined; pour over bread in the baking dish. Cover with aluminum foil and refrigerate, 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place the covered casserole in the preheated oven and bake for 30 minutes. Uncover, and bake until puffed and lightly golden, about 15 minutes more."}]</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M40" s="1" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1077\nCalories\n\n\n47g \nFat\n\n\n144g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699653841-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/149/breakfast-and-brunch/french-toast/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17817/breakfast-and-brunch/breakfast-casseroles/french-toast-casserole/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Q5dQAZQG1bMCV7jvrc7wZGTK45k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2138347-6c36e6c944ea49cc8244326862d1920e.jpg"
@@ -3085,42 +3274,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22389/french-toast-casserole/</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>French Toast Casserole</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>French Toast Casserole</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n1 8x8-inch pan"}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 cups bread cubes\n\n\n1 ½ cups milk\n\n\n4 large eggs\n\n\n¼ cup white sugar, divided\n\n\n¼ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon margarine, softened\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 cups bread cubes\n\n\n1 ½ cups milk\n\n\n4 large eggs\n\n\n¼ cup white sugar, divided\n\n\n¼ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon margarine, softened\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease an 8x8-inch baking pan."},{"recipe_directions":"Line the bottom of the prepared pan with bread cubes. Beat milk, eggs, 2 tablespoons sugar, salt, and vanilla together in a large bowl until well combined; pour over bread cubes and stir to coat. Dot with margarine; let stand for 15 minutes."},{"recipe_directions":"Combine remaining 2 tablespoons sugar with cinnamon; sprinkle over top of casserole."},{"recipe_directions":"Bake in the preheated oven until the top is golden, about 45 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n7g \nFat\n\n\n27g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>